--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-3郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-3郑振彪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>智造组工程师工作月度情况</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>外箱信息录入/外箱包装/出库，增加分批次功能</t>
+  </si>
+  <si>
+    <t>工序产能新增空白工段跳过功能</t>
   </si>
   <si>
     <t>未开始</t>
@@ -100,8 +103,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -147,25 +150,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -174,21 +199,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,42 +235,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,48 +251,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,19 +307,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,163 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +525,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,46 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,169 +622,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,10 +805,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1552,13 +1555,21 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43920</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43920</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="7">
+        <v>43920</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
     </row>
@@ -1566,13 +1577,13 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="10"/>
     </row>
@@ -1581,12 +1592,12 @@
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="5"/>
       <c r="H18" s="13"/>
     </row>
@@ -1595,12 +1606,12 @@
         <v>17</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="10"/>
     </row>
@@ -1609,12 +1620,12 @@
         <v>18</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
     </row>
@@ -1660,11 +1671,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G20">
+      <formula1>"进行中,待改进,完成"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"未开始,进行中,完成待确认,确认完成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G20">
-      <formula1>"进行中,待改进,完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.43" right="0.29" top="0.47" bottom="0.4" header="0.3" footer="0.3"/>
